--- a/data/trans_camb/iP22_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-4,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,19</t>
+          <t>-0,67; 12,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,19</t>
+          <t>-14,56; -2,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 1,63</t>
+          <t>-12,84; 0,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,41</t>
+          <t>2,09; 15,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,67</t>
+          <t>-6,39; 5,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,55</t>
+          <t>-8,75; 4,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,57</t>
+          <t>2,93; 12,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,13</t>
+          <t>-8,97; -0,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 2,32</t>
+          <t>-9,26; -0,18</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>-40,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>-27,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,22%</t>
+          <t>49,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,23%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>-16,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>-24,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>-22,73%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 90,42</t>
+          <t>-1,9; 63,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 38,17</t>
+          <t>-56,72; -14,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,06; 11,73</t>
+          <t>-50,22; 3,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 30,47</t>
+          <t>10,07; 105,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 32,39</t>
+          <t>-30,22; 33,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 48,79</t>
+          <t>-41,55; 28,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 49,82</t>
+          <t>12,64; 66,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 23,07</t>
+          <t>-39,66; -4,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 17,78</t>
+          <t>-41,0; -0,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-1,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 12,22</t>
+          <t>1,25; 12,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -2,88</t>
+          <t>-4,77; 5,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 0,43</t>
+          <t>-7,46; 1,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 15,87</t>
+          <t>-5,84; 3,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 5,23</t>
+          <t>-5,62; 3,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 4,2</t>
+          <t>-3,89; 5,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 12,17</t>
+          <t>-0,61; 6,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -0,67</t>
+          <t>-3,82; 3,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -0,18</t>
+          <t>-4,13; 2,32</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-40,06%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-27,69%</t>
+          <t>-17,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,31%</t>
+          <t>-11,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>-8,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-16,04%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,02%</t>
+          <t>-3,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,73%</t>
+          <t>-7,64%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 63,98</t>
+          <t>7,37; 90,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,72; -14,2</t>
+          <t>-25,43; 38,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 3,25</t>
+          <t>-41,06; 11,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,07; 105,84</t>
+          <t>-37,22; 30,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 33,94</t>
+          <t>-35,61; 32,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 28,05</t>
+          <t>-25,18; 48,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,64; 66,97</t>
+          <t>-3,34; 49,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,66; -4,08</t>
+          <t>-23,99; 23,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,0; -0,82</t>
+          <t>-25,02; 17,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP22_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,51</t>
+          <t>-6,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-9,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,16</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-8,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>-5,98</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 10,72</t>
+          <t>-9,95; 8,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 0,07</t>
+          <t>-17,57; 0,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,47; -1,81</t>
+          <t>-17,44; 3,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 12,15</t>
+          <t>-6,53; 12,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 4,08</t>
+          <t>-18,71; -0,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,18; -2,77</t>
+          <t>-16,0; 7,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 9,69</t>
+          <t>-4,56; 8,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -0,63</t>
+          <t>-14,8; -2,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -4,44</t>
+          <t>-13,9; 2,03</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-24,48%</t>
+          <t>-29,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,99%</t>
+          <t>-24,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>-30,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,45%</t>
+          <t>-17,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>-29,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-35,14%</t>
+          <t>-20,45%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 42,84</t>
+          <t>-30,12; 35,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,06; 1,04</t>
+          <t>-53,92; 4,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,73; -7,48</t>
+          <t>-56,88; 16,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 49,85</t>
+          <t>-18,01; 49,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 16,7</t>
+          <t>-50,95; -0,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,11; -9,58</t>
+          <t>-46,07; 25,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 38,27</t>
+          <t>-13,34; 34,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,1; -2,43</t>
+          <t>-46,33; -7,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-48,91; -17,35</t>
+          <t>-42,91; 7,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>-10,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-6,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-8,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 12,22</t>
+          <t>1,8; 15,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -2,88</t>
+          <t>-17,08; -5,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 0,43</t>
+          <t>-17,26; -4,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 15,87</t>
+          <t>5,18; 17,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 5,23</t>
+          <t>-4,92; 7,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 4,2</t>
+          <t>-12,51; -0,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 12,17</t>
+          <t>5,23; 14,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -0,67</t>
+          <t>-8,97; -0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -0,18</t>
+          <t>-13,24; -4,6</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-40,06%</t>
+          <t>-39,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,69%</t>
+          <t>-39,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,31%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,04%</t>
+          <t>-33,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,02%</t>
+          <t>-21,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,73%</t>
+          <t>-36,23%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 63,98</t>
+          <t>5,92; 63,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,72; -14,2</t>
+          <t>-55,15; -20,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 3,25</t>
+          <t>-58,05; -16,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,07; 105,84</t>
+          <t>22,93; 102,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 33,94</t>
+          <t>-21,13; 43,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 28,05</t>
+          <t>-54,44; -2,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 66,97</t>
+          <t>20,22; 65,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,66; -4,08</t>
+          <t>-35,6; -3,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,0; -0,82</t>
+          <t>-51,09; -20,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,19</t>
+          <t>-4,16; 9,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,19</t>
+          <t>-4,76; 8,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 1,63</t>
+          <t>-5,38; 8,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,41</t>
+          <t>-9,13; 4,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,67</t>
+          <t>-7,29; 6,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,55</t>
+          <t>-9,8; 4,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,57</t>
+          <t>-5,02; 4,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,13</t>
+          <t>-4,09; 5,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 2,32</t>
+          <t>-5,15; 4,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,22%</t>
+          <t>-12,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,23%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>-13,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>-2,88%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 90,42</t>
+          <t>-24,95; 85,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 38,17</t>
+          <t>-26,83; 73,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,06; 11,73</t>
+          <t>-31,61; 72,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 30,47</t>
+          <t>-46,09; 39,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 32,39</t>
+          <t>-35,27; 48,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 48,79</t>
+          <t>-48,5; 32,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 49,82</t>
+          <t>-27,21; 38,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 23,07</t>
+          <t>-21,82; 41,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 17,78</t>
+          <t>-28,95; 33,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-1,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 9,4</t>
+          <t>0,68; 13,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -1,78</t>
+          <t>-6,91; 5,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -2,99</t>
+          <t>-10,5; 0,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,65</t>
+          <t>-7,89; 3,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,43</t>
+          <t>-7,29; 3,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,87; -0,97</t>
+          <t>-4,36; 6,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,67</t>
+          <t>-1,37; 7,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; -1,06</t>
+          <t>-5,44; 2,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -3,04</t>
+          <t>-5,51; 2,67</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-22,97%</t>
+          <t>-4,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-30,93%</t>
+          <t>-24,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>-18,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>-16,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>-9,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>-12,18%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,04; 46,86</t>
+          <t>2,47; 98,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -8,79</t>
+          <t>-37,6; 43,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,31; -14,49</t>
+          <t>-53,1; 6,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,46; 43,03</t>
+          <t>-49,43; 33,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 7,83</t>
+          <t>-46,29; 37,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,05; -5,49</t>
+          <t>-27,7; 62,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,12; 39,47</t>
+          <t>-8,53; 54,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,27; -5,3</t>
+          <t>-33,44; 21,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,22; -15,68</t>
+          <t>-32,48; 20,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,99</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,72</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,27</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 9,63</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; -1,72</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; -3,15</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 7,9</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 1,27</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; -0,79</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 7,5</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; -1,26</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; -3,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26,85%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-22,97%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-30,93%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-8,88%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-22,11%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>24,67%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-16,54%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-26,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 47,42</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-37,0; -8,86</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-42,5; -15,88</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4,26; 44,97</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-24,52; 6,99</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-37,46; -4,56</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11,6; 38,65</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-26,63; -6,5</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-37,04; -16,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/iP22_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 8,1</t>
+          <t>-9,35; 9,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 0,54</t>
+          <t>-16,31; 0,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 3,73</t>
+          <t>-16,1; 5,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 12,75</t>
+          <t>-6,8; 12,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -0,22</t>
+          <t>-19,14; -0,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 7,12</t>
+          <t>-16,62; 5,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 8,81</t>
+          <t>-5,26; 8,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -2,32</t>
+          <t>-14,73; -2,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 2,03</t>
+          <t>-13,6; 1,47</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 35,97</t>
+          <t>-28,91; 41,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,92; 4,74</t>
+          <t>-50,88; 2,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,88; 16,97</t>
+          <t>-52,27; 22,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 49,29</t>
+          <t>-18,81; 49,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,95; -0,17</t>
+          <t>-50,95; -2,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 25,68</t>
+          <t>-46,22; 22,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 34,94</t>
+          <t>-15,74; 32,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,33; -7,12</t>
+          <t>-45,78; -9,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 7,52</t>
+          <t>-40,71; 6,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 15,01</t>
+          <t>2,49; 15,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -5,24</t>
+          <t>-16,94; -5,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,26; -4,12</t>
+          <t>-16,61; -3,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 17,63</t>
+          <t>5,11; 18,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 7,46</t>
+          <t>-4,76; 7,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -0,67</t>
+          <t>-12,44; 0,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 14,47</t>
+          <t>5,63; 15,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -0,77</t>
+          <t>-9,2; -1,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -4,6</t>
+          <t>-13,01; -3,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 63,12</t>
+          <t>8,07; 65,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,15; -20,17</t>
+          <t>-54,78; -20,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,05; -16,96</t>
+          <t>-55,6; -13,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 102,88</t>
+          <t>21,11; 105,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 43,86</t>
+          <t>-19,89; 45,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,44; -2,76</t>
+          <t>-54,95; 1,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,22; 65,46</t>
+          <t>21,71; 68,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -3,71</t>
+          <t>-35,63; -4,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,09; -20,06</t>
+          <t>-50,48; -16,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 9,83</t>
+          <t>-3,86; 9,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 8,39</t>
+          <t>-4,79; 8,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,19</t>
+          <t>-5,88; 8,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 4,95</t>
+          <t>-8,98; 4,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 6,0</t>
+          <t>-8,41; 6,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 4,2</t>
+          <t>-8,89; 4,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 4,98</t>
+          <t>-4,51; 5,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,39</t>
+          <t>-3,77; 5,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,4</t>
+          <t>-5,05; 4,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 85,59</t>
+          <t>-22,86; 86,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 73,94</t>
+          <t>-27,35; 75,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 72,28</t>
+          <t>-32,05; 71,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 39,41</t>
+          <t>-45,85; 35,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 48,05</t>
+          <t>-39,34; 50,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 32,03</t>
+          <t>-44,99; 36,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 38,8</t>
+          <t>-24,44; 40,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 41,67</t>
+          <t>-20,97; 42,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 33,36</t>
+          <t>-27,91; 34,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 13,64</t>
+          <t>0,8; 13,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 5,8</t>
+          <t>-6,24; 6,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 0,83</t>
+          <t>-9,51; 1,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 3,12</t>
+          <t>-7,97; 3,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 3,66</t>
+          <t>-7,65; 3,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 6,17</t>
+          <t>-4,85; 6,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 7,19</t>
+          <t>-1,93; 7,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,85</t>
+          <t>-5,94; 2,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,67</t>
+          <t>-5,81; 2,1</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,47; 98,04</t>
+          <t>3,74; 100,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 43,81</t>
+          <t>-33,43; 46,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 6,91</t>
+          <t>-48,84; 13,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,43; 33,7</t>
+          <t>-50,94; 30,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 37,33</t>
+          <t>-47,38; 34,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 62,13</t>
+          <t>-30,34; 59,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 54,72</t>
+          <t>-11,61; 54,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 21,71</t>
+          <t>-34,51; 21,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 20,22</t>
+          <t>-34,37; 16,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,63</t>
+          <t>2,19; 9,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -1,72</t>
+          <t>-8,46; -1,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -3,15</t>
+          <t>-9,85; -3,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,9</t>
+          <t>1,02; 8,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,27</t>
+          <t>-4,92; 1,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -0,79</t>
+          <t>-7,52; -0,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,5</t>
+          <t>2,51; 7,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,91; -1,26</t>
+          <t>-5,71; -0,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -3,23</t>
+          <t>-8,1; -3,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,23; 47,42</t>
+          <t>9,09; 49,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -8,86</t>
+          <t>-35,5; -8,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,5; -15,88</t>
+          <t>-41,87; -14,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,26; 44,97</t>
+          <t>4,98; 46,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 6,99</t>
+          <t>-23,55; 8,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,46; -4,56</t>
+          <t>-36,44; -4,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,6; 38,65</t>
+          <t>11,11; 38,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,63; -6,5</t>
+          <t>-26,3; -4,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,04; -16,5</t>
+          <t>-37,06; -16,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP22_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-9,44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-4,99</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-8,16</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,69</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,55</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,44</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-5,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 9,41</t>
+          <t>-5,0; 13,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 0,26</t>
+          <t>-18,2; -0,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 5,47</t>
+          <t>-15,33; 7,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 12,83</t>
+          <t>-8,61; 9,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,14; -0,85</t>
+          <t>-16,81; 0,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 5,93</t>
+          <t>-15,62; 4,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 8,21</t>
+          <t>-4,73; 8,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,73; -2,44</t>
+          <t>-15,69; -2,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 1,47</t>
+          <t>-13,09; 2,86</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-30,25%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-15,97%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,97%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-29,66%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-24,33%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,36%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-30,25%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-21,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-20,45%</t>
+          <t>-18,54%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,91; 41,03</t>
+          <t>-13,71; 52,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 2,02</t>
+          <t>-49,1; -0,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-52,27; 22,79</t>
+          <t>-42,52; 29,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 49,4</t>
+          <t>-26,7; 43,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,95; -2,6</t>
+          <t>-54,13; 1,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 22,51</t>
+          <t>-50,53; 19,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 32,16</t>
+          <t>-14,93; 33,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,78; -9,65</t>
+          <t>-47,64; -10,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,71; 6,65</t>
+          <t>-40,71; 10,62</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>11,71</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-5,98</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>8,73</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-10,81</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-10,63</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,71</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>-10,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>-7,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 15,62</t>
+          <t>5,49; 17,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -5,16</t>
+          <t>-4,8; 6,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -3,51</t>
+          <t>-12,22; 1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 18,67</t>
+          <t>1,6; 15,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 7,98</t>
+          <t>-16,23; -4,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 0,06</t>
+          <t>-16,8; -3,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 15,03</t>
+          <t>5,66; 14,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -1,11</t>
+          <t>-9,03; -1,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -3,7</t>
+          <t>-12,76; -3,51</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>57,85%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-29,53%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>32,14%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-39,8%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-39,13%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>57,85%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-33,05%</t>
+          <t>-36,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-36,23%</t>
+          <t>-33,37%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 65,83</t>
+          <t>23,4; 102,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,78; -20,16</t>
+          <t>-21,82; 40,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,6; -13,35</t>
+          <t>-53,07; 7,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 105,37</t>
+          <t>5,28; 64,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 45,8</t>
+          <t>-54,25; -20,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,95; 1,41</t>
+          <t>-55,87; -12,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 68,36</t>
+          <t>21,05; 68,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,63; -4,09</t>
+          <t>-35,29; -4,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,48; -16,41</t>
+          <t>-49,28; -15,61</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,69</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>1,71</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 9,89</t>
+          <t>-9,33; 5,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 8,51</t>
+          <t>-6,92; 6,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 8,24</t>
+          <t>-8,76; 5,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 4,25</t>
+          <t>-4,53; 9,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 6,21</t>
+          <t>-4,93; 8,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 4,79</t>
+          <t>-5,73; 8,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 5,37</t>
+          <t>-4,49; 4,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 5,45</t>
+          <t>-3,59; 5,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 4,32</t>
+          <t>-5,29; 4,58</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-12,93%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-2,1%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-10,28%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>18,29%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>11,66%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-12,93%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-2,1%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,29%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>0,06%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 86,53</t>
+          <t>-44,95; 40,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 75,27</t>
+          <t>-34,81; 52,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 71,47</t>
+          <t>-43,13; 45,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 35,45</t>
+          <t>-25,17; 89,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,34; 50,17</t>
+          <t>-27,5; 79,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 36,47</t>
+          <t>-31,61; 78,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 40,72</t>
+          <t>-25,34; 37,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 42,98</t>
+          <t>-20,57; 43,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 34,71</t>
+          <t>-29,11; 35,59</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,46</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,67</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 13,53</t>
+          <t>-7,81; 2,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 6,08</t>
+          <t>-7,82; 3,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 1,79</t>
+          <t>-5,2; 8,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 3,08</t>
+          <t>0,64; 14,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 3,57</t>
+          <t>-6,75; 5,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 6,37</t>
+          <t>-9,85; 1,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 7,15</t>
+          <t>-1,72; 6,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 2,77</t>
+          <t>-5,13; 2,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 2,1</t>
+          <t>-5,83; 3,17</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-18,23%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-16,26%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>45,36%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-4,07%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-24,93%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-18,23%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-16,26%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>-24,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-12,18%</t>
+          <t>-10,81%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,74; 100,63</t>
+          <t>-48,66; 27,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 46,15</t>
+          <t>-49,46; 28,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 13,59</t>
+          <t>-34,14; 73,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 30,23</t>
+          <t>3,26; 108,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,38; 34,68</t>
+          <t>-36,16; 44,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 59,19</t>
+          <t>-52,17; 11,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 54,88</t>
+          <t>-10,42; 50,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 21,65</t>
+          <t>-31,15; 21,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 16,56</t>
+          <t>-33,47; 25,23</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>5,83</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-4,99</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-6,72</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,63</t>
+          <t>0,78; 7,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -1,72</t>
+          <t>-5,13; 1,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -3,01</t>
+          <t>-7,58; 0,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 8,01</t>
+          <t>2,42; 9,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 1,56</t>
+          <t>-8,45; -1,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -0,87</t>
+          <t>-9,67; -2,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,67</t>
+          <t>2,28; 7,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -0,96</t>
+          <t>-5,78; -1,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,1; -3,22</t>
+          <t>-7,65; -2,42</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-8,88%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-19,66%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>26,85%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-22,97%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-30,93%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>22,13%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-8,88%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>-29,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>-24,99%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>9,09; 49,4</t>
+          <t>3,46; 43,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,5; -8,26</t>
+          <t>-24,9; 7,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,87; -14,73</t>
+          <t>-36,56; 1,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,98; 46,42</t>
+          <t>10,04; 46,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 8,88</t>
+          <t>-35,6; -8,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,44; -4,67</t>
+          <t>-41,03; -12,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,11; 38,72</t>
+          <t>10,12; 39,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,3; -4,89</t>
+          <t>-26,27; -5,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,06; -16,43</t>
+          <t>-35,1; -12,16</t>
         </is>
       </c>
     </row>
